--- a/outputs-r202/test-g__UBA1066.xlsx
+++ b/outputs-r202/test-g__UBA1066.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
   <si>
     <t>Row</t>
   </si>
@@ -148,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -158,14 +158,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -211,828 +215,828 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.00010982057343585032</v>
+        <v>6.1255804496214379e-05</v>
       </c>
       <c r="C2">
-        <v>2.2229519549668492e-14</v>
+        <v>2.2211362384813328e-14</v>
       </c>
       <c r="D2">
-        <v>4.512832643603885e-05</v>
+        <v>6.0461334024459177e-05</v>
       </c>
       <c r="E2">
-        <v>2.2229519549668492e-14</v>
+        <v>2.2211362384813328e-14</v>
       </c>
       <c r="F2">
-        <v>2.2229519549668492e-14</v>
+        <v>2.2211362384813328e-14</v>
       </c>
       <c r="G2">
-        <v>2.2229519549668492e-14</v>
+        <v>2.2211362384813328e-14</v>
       </c>
       <c r="H2">
-        <v>0.99785253069969027</v>
+        <v>0.91162522834641002</v>
       </c>
       <c r="I2">
-        <v>4.8157669597482981e-07</v>
+        <v>1.9154147802739773e-07</v>
       </c>
       <c r="J2">
-        <v>1.1672989241232127e-05</v>
+        <v>3.188006816915156e-06</v>
       </c>
       <c r="K2">
-        <v>2.2229519549668492e-14</v>
+        <v>2.2211362384813328e-14</v>
       </c>
       <c r="L2">
-        <v>2.2229519549668492e-14</v>
+        <v>2.2211362384813328e-14</v>
       </c>
       <c r="M2">
-        <v>2.2229519549668492e-14</v>
+        <v>2.2211362384813328e-14</v>
       </c>
       <c r="N2">
-        <v>2.1370995743134879e-05</v>
+        <v>1.5382553503058509e-10</v>
       </c>
       <c r="O2">
-        <v>2.2229519549668492e-14</v>
+        <v>2.2211362384813328e-14</v>
       </c>
       <c r="P2">
-        <v>2.2229519549668492e-14</v>
+        <v>2.2211362384813328e-14</v>
       </c>
       <c r="Q2">
-        <v>2.2229519549668492e-14</v>
+        <v>2.2211362384813328e-14</v>
       </c>
       <c r="R2">
-        <v>2.2229519549668492e-14</v>
+        <v>2.2211362384813328e-14</v>
       </c>
       <c r="S2">
-        <v>2.2229519549668495e-14</v>
+        <v>2.2211362384813328e-14</v>
       </c>
       <c r="T2">
-        <v>0.0012089998044818191</v>
+        <v>0.047950407939963108</v>
       </c>
       <c r="U2">
-        <v>2.2229519549668495e-14</v>
+        <v>2.2211362384813328e-14</v>
       </c>
       <c r="V2">
-        <v>2.2229519549668495e-14</v>
+        <v>2.2211362384813328e-14</v>
       </c>
       <c r="W2">
-        <v>2.2229519549668495e-14</v>
+        <v>2.2211362384813328e-14</v>
       </c>
       <c r="X2">
-        <v>0.00074999503383159718</v>
+        <v>0.040299266872541692</v>
       </c>
       <c r="Y2">
-        <v>2.2229519549668495e-14</v>
+        <v>2.2211362384813328e-14</v>
       </c>
       <c r="Z2">
-        <v>2.2229519549668495e-14</v>
+        <v>2.2211362384813328e-14</v>
       </c>
       <c r="AA2">
-        <v>2.2229519549668495e-14</v>
+        <v>2.2211362384813328e-14</v>
       </c>
       <c r="AB2">
-        <v>2.2229519549668495e-14</v>
+        <v>2.2211362384813328e-14</v>
       </c>
       <c r="AC2">
-        <v>2.2229519549668495e-14</v>
+        <v>2.2211362384813328e-14</v>
       </c>
       <c r="AD2">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.0002643875675342288</v>
+        <v>0.00010374423793670617</v>
       </c>
       <c r="C3">
-        <v>4.0735690889621823e-14</v>
+        <v>2.2201604958573333e-14</v>
       </c>
       <c r="D3">
-        <v>0.0049319947243071319</v>
+        <v>0.0058708274862106676</v>
       </c>
       <c r="E3">
-        <v>4.0735690889621703e-14</v>
+        <v>2.2201604958573333e-14</v>
       </c>
       <c r="F3">
-        <v>4.0735690889621804e-14</v>
+        <v>2.2201604958573333e-14</v>
       </c>
       <c r="G3">
-        <v>4.0735690889621671e-14</v>
+        <v>2.2201604958573333e-14</v>
       </c>
       <c r="H3">
-        <v>1.9951001145812526e-06</v>
+        <v>2.0770423539838313e-06</v>
       </c>
       <c r="I3">
-        <v>0.98873242498935832</v>
+        <v>0.99275191774372284</v>
       </c>
       <c r="J3">
-        <v>0.0060511663813696947</v>
+        <v>0.001254134562614117</v>
       </c>
       <c r="K3">
-        <v>4.0735690889621722e-14</v>
+        <v>2.2201604958573333e-14</v>
       </c>
       <c r="L3">
-        <v>4.0735690889621804e-14</v>
+        <v>2.2201604958573333e-14</v>
       </c>
       <c r="M3">
-        <v>4.0735690889621722e-14</v>
+        <v>2.2201604958573333e-14</v>
       </c>
       <c r="N3">
-        <v>1.790154056098072e-05</v>
+        <v>1.7196790090743975e-05</v>
       </c>
       <c r="O3">
-        <v>4.0735690889621634e-14</v>
+        <v>2.2201604958573333e-14</v>
       </c>
       <c r="P3">
-        <v>4.0735690889621735e-14</v>
+        <v>2.2201604958573333e-14</v>
       </c>
       <c r="Q3">
-        <v>4.0735690889621735e-14</v>
+        <v>2.2201604958573333e-14</v>
       </c>
       <c r="R3">
-        <v>4.0735690889621735e-14</v>
+        <v>2.2201604958573333e-14</v>
       </c>
       <c r="S3">
-        <v>4.0735690889621779e-14</v>
+        <v>2.2201604958573333e-14</v>
       </c>
       <c r="T3">
-        <v>1.2116273296191787e-07</v>
+        <v>1.0212460738500177e-07</v>
       </c>
       <c r="U3">
-        <v>4.0735690889621779e-14</v>
+        <v>2.2201604958573333e-14</v>
       </c>
       <c r="V3">
-        <v>4.0735690889621785e-14</v>
+        <v>2.2201604958573333e-14</v>
       </c>
       <c r="W3">
-        <v>4.0735690889621678e-14</v>
+        <v>2.2201604958573333e-14</v>
       </c>
       <c r="X3">
-        <v>8.5332072931869047e-09</v>
+        <v>1.2019485879379153e-11</v>
       </c>
       <c r="Y3">
-        <v>4.0735690889621779e-14</v>
+        <v>2.2201604958573333e-14</v>
       </c>
       <c r="Z3">
-        <v>4.0735690889621886e-14</v>
+        <v>2.2201604958573333e-14</v>
       </c>
       <c r="AA3">
-        <v>4.0735690889621886e-14</v>
+        <v>2.2201604958573333e-14</v>
       </c>
       <c r="AB3">
-        <v>4.0735690889621886e-14</v>
+        <v>2.2201604958573333e-14</v>
       </c>
       <c r="AC3">
-        <v>4.0735690889621779e-14</v>
+        <v>2.2201604958573333e-14</v>
       </c>
       <c r="AD3">
         <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.052227910864797659</v>
+        <v>0.071005319485949292</v>
       </c>
       <c r="C4">
-        <v>6.0511940032990399e-12</v>
+        <v>2.0012213698134364e-11</v>
       </c>
       <c r="D4">
-        <v>0.014228133918770213</v>
+        <v>0.059452888037138059</v>
       </c>
       <c r="E4">
-        <v>6.051194003299052e-12</v>
+        <v>2.0012213698134354e-11</v>
       </c>
       <c r="F4">
-        <v>6.051194003299052e-12</v>
+        <v>2.0012213698134354e-11</v>
       </c>
       <c r="G4">
-        <v>6.0511940032990488e-12</v>
+        <v>2.0012213698134274e-11</v>
       </c>
       <c r="H4">
-        <v>0.12557927873068547</v>
+        <v>0.15441195071115163</v>
       </c>
       <c r="I4">
-        <v>0.011227420073540837</v>
+        <v>0.046568050704780803</v>
       </c>
       <c r="J4">
-        <v>0.010484008697806283</v>
+        <v>0.025534612623829354</v>
       </c>
       <c r="K4">
-        <v>6.0511940032990528e-12</v>
+        <v>2.0012213698134261e-11</v>
       </c>
       <c r="L4">
-        <v>0.2106808704859065</v>
+        <v>0.18797772724878978</v>
       </c>
       <c r="M4">
-        <v>6.0511940032990496e-12</v>
+        <v>2.0012213698134261e-11</v>
       </c>
       <c r="N4">
-        <v>0.14106266322340671</v>
+        <v>0.14915145960806309</v>
       </c>
       <c r="O4">
-        <v>6.0511940032990496e-12</v>
+        <v>2.0012213698134345e-11</v>
       </c>
       <c r="P4">
-        <v>6.0511940032990496e-12</v>
+        <v>2.0012213698134345e-11</v>
       </c>
       <c r="Q4">
-        <v>6.0511940032990496e-12</v>
+        <v>2.0012213698134345e-11</v>
       </c>
       <c r="R4">
-        <v>6.0511940032990496e-12</v>
+        <v>2.0012213698134345e-11</v>
       </c>
       <c r="S4">
-        <v>6.0511940032990456e-12</v>
+        <v>2.0012213698134267e-11</v>
       </c>
       <c r="T4">
-        <v>0.035997287806563416</v>
+        <v>0.13025923245899404</v>
       </c>
       <c r="U4">
-        <v>6.0511940032990456e-12</v>
+        <v>2.0012213698134283e-11</v>
       </c>
       <c r="V4">
-        <v>6.0511940032990472e-12</v>
+        <v>2.001221369813429e-11</v>
       </c>
       <c r="W4">
-        <v>0.1974066474710825</v>
+        <v>2.001221369813429e-11</v>
       </c>
       <c r="X4">
-        <v>0.0036991311534878067</v>
+        <v>0.00028629264354081114</v>
       </c>
       <c r="Y4">
-        <v>6.0511940032990496e-12</v>
+        <v>2.001221369813429e-11</v>
       </c>
       <c r="Z4">
-        <v>0.1974066474710825</v>
+        <v>0.17535246611754293</v>
       </c>
       <c r="AA4">
-        <v>6.0511940032990496e-12</v>
+        <v>2.001221369813429e-11</v>
       </c>
       <c r="AB4">
-        <v>6.0511940032990512e-12</v>
+        <v>2.001221369813429e-11</v>
       </c>
       <c r="AC4">
-        <v>6.0511940032990504e-12</v>
+        <v>2.0012213698134245e-11</v>
       </c>
       <c r="AD4">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.034220460815361113</v>
+        <v>0.00014121598861912155</v>
       </c>
       <c r="C5">
-        <v>0.03407357741469539</v>
+        <v>2.2201648408483166e-14</v>
       </c>
       <c r="D5">
-        <v>0.037130551063210518</v>
+        <v>0.00356594452781405</v>
       </c>
       <c r="E5">
-        <v>0.03407357741469539</v>
+        <v>2.2201648408483166e-14</v>
       </c>
       <c r="F5">
-        <v>0.034073577414695397</v>
+        <v>2.2201648408483166e-14</v>
       </c>
       <c r="G5">
-        <v>0.034073577414695355</v>
+        <v>2.2201648408483166e-14</v>
       </c>
       <c r="H5">
-        <v>0.034073656607868895</v>
+        <v>3.2630626734449539e-08</v>
       </c>
       <c r="I5">
-        <v>0.035673438870344083</v>
+        <v>0.00050730480848196094</v>
       </c>
       <c r="J5">
-        <v>0.034089066932789958</v>
+        <v>1.2246916626720653e-05</v>
       </c>
       <c r="K5">
-        <v>0.075193920182342805</v>
+        <v>0.99577317153366196</v>
       </c>
       <c r="L5">
-        <v>0.034073577414695348</v>
+        <v>2.2201648408483166e-14</v>
       </c>
       <c r="M5">
-        <v>0.034073577414695348</v>
+        <v>2.2201648408483166e-14</v>
       </c>
       <c r="N5">
-        <v>0.034073577414709559</v>
+        <v>2.2201648408483166e-14</v>
       </c>
       <c r="O5">
-        <v>0.034073577414695348</v>
+        <v>2.2201648408483166e-14</v>
       </c>
       <c r="P5">
-        <v>0.034073577414695348</v>
+        <v>2.2201648408483166e-14</v>
       </c>
       <c r="Q5">
-        <v>0.034073577414695348</v>
+        <v>2.2201648408483166e-14</v>
       </c>
       <c r="R5">
-        <v>0.034073577414695348</v>
+        <v>2.2201648408483166e-14</v>
       </c>
       <c r="S5">
-        <v>0.034073577414695369</v>
+        <v>2.2201648408483166e-14</v>
       </c>
       <c r="T5">
-        <v>0.034073754079234644</v>
+        <v>7.6138701068427588e-08</v>
       </c>
       <c r="U5">
-        <v>0.034073577414695466</v>
+        <v>2.2201648408483166e-14</v>
       </c>
       <c r="V5">
-        <v>0.034073577414695466</v>
+        <v>2.2201648408483166e-14</v>
       </c>
       <c r="W5">
-        <v>0.034073577414695369</v>
+        <v>2.2201648408483166e-14</v>
       </c>
       <c r="X5">
-        <v>0.034073603154926239</v>
+        <v>7.455024303698537e-09</v>
       </c>
       <c r="Y5">
-        <v>0.03407357741469539</v>
+        <v>2.2201648408483166e-14</v>
       </c>
       <c r="Z5">
-        <v>0.034073577414695466</v>
+        <v>2.2201648408483166e-14</v>
       </c>
       <c r="AA5">
-        <v>0.034073577414695466</v>
+        <v>2.2201648408483166e-14</v>
       </c>
       <c r="AB5">
-        <v>0.034073577414695466</v>
+        <v>2.2201648408483166e-14</v>
       </c>
       <c r="AC5">
-        <v>0.034073577414695466</v>
+        <v>2.2201648408483166e-14</v>
       </c>
       <c r="AD5">
         <v>10</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.00049887534608607958</v>
+        <v>9.9486507891851205e-05</v>
       </c>
       <c r="C6">
-        <v>8.7652107554084657e-14</v>
+        <v>2.2201696894025142e-14</v>
       </c>
       <c r="D6">
-        <v>0.0074572637422289255</v>
+        <v>0.0056788059909019849</v>
       </c>
       <c r="E6">
-        <v>8.7652107554084455e-14</v>
+        <v>2.2201696894025142e-14</v>
       </c>
       <c r="F6">
-        <v>8.7652107554084493e-14</v>
+        <v>2.2201696894025142e-14</v>
       </c>
       <c r="G6">
-        <v>8.7652107554084657e-14</v>
+        <v>2.2201696894025142e-14</v>
       </c>
       <c r="H6">
-        <v>1.1263347677880283e-05</v>
+        <v>1.3913765527964039e-06</v>
       </c>
       <c r="I6">
-        <v>0.98442063308255401</v>
+        <v>0.99288957991937499</v>
       </c>
       <c r="J6">
-        <v>0.007106570392218685</v>
+        <v>0.0013234155383469045</v>
       </c>
       <c r="K6">
-        <v>8.7652107554084733e-14</v>
+        <v>2.2201696894025142e-14</v>
       </c>
       <c r="L6">
-        <v>8.7652107554084771e-14</v>
+        <v>2.2201696894025142e-14</v>
       </c>
       <c r="M6">
-        <v>8.7652107554084569e-14</v>
+        <v>2.2201696894025142e-14</v>
       </c>
       <c r="N6">
-        <v>0.00050494493827494603</v>
+        <v>7.2471507980865332e-06</v>
       </c>
       <c r="O6">
-        <v>8.7652107554084367e-14</v>
+        <v>2.2201696894025142e-14</v>
       </c>
       <c r="P6">
-        <v>8.7652107554084569e-14</v>
+        <v>2.2201696894025142e-14</v>
       </c>
       <c r="Q6">
-        <v>8.7652107554084569e-14</v>
+        <v>2.2201696894025142e-14</v>
       </c>
       <c r="R6">
-        <v>8.7652107554084569e-14</v>
+        <v>2.2201696894025142e-14</v>
       </c>
       <c r="S6">
-        <v>8.7652107554084367e-14</v>
+        <v>2.2201696894025142e-14</v>
       </c>
       <c r="T6">
-        <v>4.4664711566275713e-07</v>
+        <v>7.3492122318721822e-08</v>
       </c>
       <c r="U6">
-        <v>8.7652107554084367e-14</v>
+        <v>2.2201696894025142e-14</v>
       </c>
       <c r="V6">
-        <v>8.7652107554084998e-14</v>
+        <v>2.2201696894025142e-14</v>
       </c>
       <c r="W6">
-        <v>8.7652107554084796e-14</v>
+        <v>2.2201696894025142e-14</v>
       </c>
       <c r="X6">
-        <v>2.5020914850790238e-09</v>
+        <v>2.356710641616096e-11</v>
       </c>
       <c r="Y6">
-        <v>8.7652107554084796e-14</v>
+        <v>2.2201696894025142e-14</v>
       </c>
       <c r="Z6">
-        <v>8.7652107554084796e-14</v>
+        <v>2.2201696894025142e-14</v>
       </c>
       <c r="AA6">
-        <v>8.7652107554084796e-14</v>
+        <v>2.2201696894025142e-14</v>
       </c>
       <c r="AB6">
-        <v>8.7652107554084796e-14</v>
+        <v>2.2201696894025142e-14</v>
       </c>
       <c r="AC6">
-        <v>8.7652107554084165e-14</v>
+        <v>2.2201696894025142e-14</v>
       </c>
       <c r="AD6">
         <v>8</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.00030822895168797595</v>
+        <v>0.00021496782969615067</v>
       </c>
       <c r="C7">
-        <v>2.2201760972964248e-14</v>
+        <v>2.2202098416631599e-14</v>
       </c>
       <c r="D7">
-        <v>0.0012617552989108293</v>
+        <v>0.004405541268248804</v>
       </c>
       <c r="E7">
-        <v>2.2201760972964248e-14</v>
+        <v>2.2202098416631599e-14</v>
       </c>
       <c r="F7">
-        <v>2.2201760972964248e-14</v>
+        <v>2.2202098416631599e-14</v>
       </c>
       <c r="G7">
-        <v>2.2201760972964248e-14</v>
+        <v>2.2202098416631599e-14</v>
       </c>
       <c r="H7">
-        <v>2.3828680625108596e-10</v>
+        <v>7.8228288660281677e-11</v>
       </c>
       <c r="I7">
-        <v>7.2964682324657185e-06</v>
+        <v>7.6121467636705611e-07</v>
       </c>
       <c r="J7">
-        <v>4.6432659270837966e-05</v>
+        <v>7.4757136579934797e-05</v>
       </c>
       <c r="K7">
-        <v>2.2201760972964248e-14</v>
+        <v>2.2202098416631599e-14</v>
       </c>
       <c r="L7">
-        <v>2.2201760972964248e-14</v>
+        <v>2.2202098416631599e-14</v>
       </c>
       <c r="M7">
-        <v>0.9956780008257976</v>
+        <v>0.9938470539038301</v>
       </c>
       <c r="N7">
-        <v>2.2201760972964248e-14</v>
+        <v>2.2202098416631599e-14</v>
       </c>
       <c r="O7">
-        <v>2.2201760972964248e-14</v>
+        <v>2.2202098416631599e-14</v>
       </c>
       <c r="P7">
-        <v>2.2201760972964248e-14</v>
+        <v>2.2202098416631599e-14</v>
       </c>
       <c r="Q7">
-        <v>2.2201760972964248e-14</v>
+        <v>2.2202098416631599e-14</v>
       </c>
       <c r="R7">
-        <v>2.2201760972964248e-14</v>
+        <v>2.2202098416631599e-14</v>
       </c>
       <c r="S7">
-        <v>2.2201760972964248e-14</v>
+        <v>2.2202098416631599e-14</v>
       </c>
       <c r="T7">
-        <v>0.0026979644345591245</v>
+        <v>0.001456755589398593</v>
       </c>
       <c r="U7">
-        <v>2.2201760972964248e-14</v>
+        <v>2.2202098416631599e-14</v>
       </c>
       <c r="V7">
-        <v>2.2201760972964248e-14</v>
+        <v>2.2202098416631599e-14</v>
       </c>
       <c r="W7">
-        <v>2.2201760972964248e-14</v>
+        <v>2.2202098416631599e-14</v>
       </c>
       <c r="X7">
-        <v>3.21122810170095e-07</v>
+        <v>1.6297889771466141e-07</v>
       </c>
       <c r="Y7">
-        <v>2.2201760972964248e-14</v>
+        <v>2.2202098416631599e-14</v>
       </c>
       <c r="Z7">
-        <v>2.2201760972964248e-14</v>
+        <v>2.2202098416631599e-14</v>
       </c>
       <c r="AA7">
-        <v>2.2201760972964248e-14</v>
+        <v>2.2202098416631599e-14</v>
       </c>
       <c r="AB7">
-        <v>2.2201760972964248e-14</v>
+        <v>2.2202098416631599e-14</v>
       </c>
       <c r="AC7">
-        <v>2.2201760972964248e-14</v>
+        <v>2.2202098416631599e-14</v>
       </c>
       <c r="AD7">
         <v>12</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6.2271228153874144e-05</v>
+        <v>4.0332753558710649e-05</v>
       </c>
       <c r="C8">
-        <v>2.2201700201059484e-14</v>
+        <v>2.2202071349278508e-14</v>
       </c>
       <c r="D8">
-        <v>0.00022045231463206148</v>
+        <v>0.00035699873154182362</v>
       </c>
       <c r="E8">
-        <v>2.2201700201059484e-14</v>
+        <v>2.2202071349278508e-14</v>
       </c>
       <c r="F8">
-        <v>2.2201700201059484e-14</v>
+        <v>2.2202071349278508e-14</v>
       </c>
       <c r="G8">
-        <v>2.2201700201059484e-14</v>
+        <v>2.2202071349278508e-14</v>
       </c>
       <c r="H8">
-        <v>0.0039825455335934217</v>
+        <v>0.0034562821119079553</v>
       </c>
       <c r="I8">
-        <v>0.00023099964029291929</v>
+        <v>0.0015030818035181577</v>
       </c>
       <c r="J8">
-        <v>0.0001489900158745312</v>
+        <v>0.00012160213911793969</v>
       </c>
       <c r="K8">
-        <v>2.2201700201059484e-14</v>
+        <v>2.2202071349278508e-14</v>
       </c>
       <c r="L8">
-        <v>2.2201700201059484e-14</v>
+        <v>2.2202071349278508e-14</v>
       </c>
       <c r="M8">
-        <v>2.2201700201059484e-14</v>
+        <v>2.2202071349278508e-14</v>
       </c>
       <c r="N8">
-        <v>0.99534993643478742</v>
+        <v>0.99450905922976207</v>
       </c>
       <c r="O8">
-        <v>2.2201700201059484e-14</v>
+        <v>2.2202071349278508e-14</v>
       </c>
       <c r="P8">
-        <v>2.2201700201059484e-14</v>
+        <v>2.2202071349278508e-14</v>
       </c>
       <c r="Q8">
-        <v>2.2201700201059484e-14</v>
+        <v>2.2202071349278508e-14</v>
       </c>
       <c r="R8">
-        <v>2.2201700201059484e-14</v>
+        <v>2.2202071349278508e-14</v>
       </c>
       <c r="S8">
-        <v>2.2201700201059484e-14</v>
+        <v>2.2202071349278508e-14</v>
       </c>
       <c r="T8">
-        <v>4.8048304348586977e-06</v>
+        <v>1.2643230127022162e-05</v>
       </c>
       <c r="U8">
-        <v>2.2201700201059484e-14</v>
+        <v>2.2202071349278508e-14</v>
       </c>
       <c r="V8">
-        <v>2.2201700201059484e-14</v>
+        <v>2.2202071349278508e-14</v>
       </c>
       <c r="W8">
-        <v>2.2201700201059484e-14</v>
+        <v>2.2202071349278508e-14</v>
       </c>
       <c r="X8">
-        <v>1.7869642450945933e-12</v>
+        <v>2.2202071349278508e-14</v>
       </c>
       <c r="Y8">
-        <v>2.2201700201059484e-14</v>
+        <v>2.2202071349278508e-14</v>
       </c>
       <c r="Z8">
-        <v>2.2201700201059484e-14</v>
+        <v>2.2202071349278508e-14</v>
       </c>
       <c r="AA8">
-        <v>2.2201700201059484e-14</v>
+        <v>2.2202071349278508e-14</v>
       </c>
       <c r="AB8">
-        <v>2.2201700201059484e-14</v>
+        <v>2.2202071349278508e-14</v>
       </c>
       <c r="AC8">
-        <v>2.2201700201059484e-14</v>
+        <v>2.2202071349278508e-14</v>
       </c>
       <c r="AD8">
         <v>13</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.00081006273962833087</v>
+        <v>6.6916263091263044e-05</v>
       </c>
       <c r="C9">
-        <v>1.9450946374082932e-13</v>
+        <v>2.2212317753564441e-14</v>
       </c>
       <c r="D9">
-        <v>0.0099596367272967983</v>
+        <v>0.0014498475126359283</v>
       </c>
       <c r="E9">
-        <v>1.9450946374082909e-13</v>
+        <v>2.2212317753564441e-14</v>
       </c>
       <c r="F9">
-        <v>1.9450946374082965e-13</v>
+        <v>2.2212317753564441e-14</v>
       </c>
       <c r="G9">
-        <v>1.945094637408297e-13</v>
+        <v>2.2212317753564441e-14</v>
       </c>
       <c r="H9">
-        <v>0.00024971327798943116</v>
+        <v>7.9953802820849714e-05</v>
       </c>
       <c r="I9">
-        <v>0.96953889046924424</v>
+        <v>0.99753444348178211</v>
       </c>
       <c r="J9">
-        <v>0.0072968991344175161</v>
+        <v>0.00042581423416748504</v>
       </c>
       <c r="K9">
-        <v>1.9450946374082947e-13</v>
+        <v>2.2212317753564438e-14</v>
       </c>
       <c r="L9">
-        <v>1.9450946374082962e-13</v>
+        <v>2.2212317753564438e-14</v>
       </c>
       <c r="M9">
-        <v>1.9450946374082922e-13</v>
+        <v>2.2212317753564438e-14</v>
       </c>
       <c r="N9">
-        <v>0.012141162592162318</v>
+        <v>0.00044055329014393708</v>
       </c>
       <c r="O9">
-        <v>1.9450946374082922e-13</v>
+        <v>2.2212317753564438e-14</v>
       </c>
       <c r="P9">
-        <v>1.945094637408295e-13</v>
+        <v>2.2212317753564438e-14</v>
       </c>
       <c r="Q9">
-        <v>1.945094637408295e-13</v>
+        <v>2.2212317753564438e-14</v>
       </c>
       <c r="R9">
-        <v>1.945094637408295e-13</v>
+        <v>2.2212317753564438e-14</v>
       </c>
       <c r="S9">
-        <v>1.9450946374082988e-13</v>
+        <v>2.2212317753564441e-14</v>
       </c>
       <c r="T9">
-        <v>3.6347247258575568e-06</v>
+        <v>2.4714147429771402e-06</v>
       </c>
       <c r="U9">
-        <v>1.9450946374082988e-13</v>
+        <v>2.2212317753564441e-14</v>
       </c>
       <c r="V9">
-        <v>1.9450946374082988e-13</v>
+        <v>2.2212317753564441e-14</v>
       </c>
       <c r="W9">
-        <v>1.9450946374082935e-13</v>
+        <v>2.2212317753564441e-14</v>
       </c>
       <c r="X9">
-        <v>3.3064546964968319e-10</v>
+        <v>1.7129505332182861e-13</v>
       </c>
       <c r="Y9">
-        <v>1.9450946374082935e-13</v>
+        <v>2.2212317753564441e-14</v>
       </c>
       <c r="Z9">
-        <v>1.9450946374082988e-13</v>
+        <v>2.2212317753564441e-14</v>
       </c>
       <c r="AA9">
-        <v>1.9450946374082988e-13</v>
+        <v>2.2212317753564441e-14</v>
       </c>
       <c r="AB9">
-        <v>1.9450946374082988e-13</v>
+        <v>2.2212317753564441e-14</v>
       </c>
       <c r="AC9">
-        <v>1.945094637408296e-13</v>
+        <v>2.2212317753564441e-14</v>
       </c>
       <c r="AD9">
         <v>8</v>
